--- a/src/main/resources/temp/ordercharger.xlsx
+++ b/src/main/resources/temp/ordercharger.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>minhoca suja de barro</t>
   </si>
@@ -381,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -394,80 +394,39 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1">
-        <v>11007</v>
+        <v>11046</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1">
-        <v>11046</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
         <v>300</v>
       </c>
     </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>11096</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>110</v>
-      </c>
+      <c r="A3" s="1"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>11015</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>25</v>
-      </c>
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>11092</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C5" s="1">
-        <v>50</v>
-      </c>
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>11023</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C6" s="1">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>11076</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>50</v>
-      </c>
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/temp/ordercharger.xlsx
+++ b/src/main/resources/temp/ordercharger.xlsx
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="1">
   <si>
     <t>minhoca suja de barro</t>
   </si>
@@ -381,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C6"/>
+  <dimension ref="A1:C7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+      <selection activeCell="C6" sqref="C6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -394,39 +394,80 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="1">
+        <v>11007</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="1">
         <v>11046</v>
       </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
+      <c r="B2" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C2" s="1">
         <v>300</v>
       </c>
     </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="1"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="1">
+        <v>11096</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C3" s="1">
+        <v>110</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="1">
+        <v>11015</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="1">
+        <v>25</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="1">
+        <v>11092</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="1">
+        <v>50</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="1">
+        <v>11023</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C6" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="1">
+        <v>11076</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C7" s="1">
+        <v>50</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/temp/ordercharger.xlsx
+++ b/src/main/resources/temp/ordercharger.xlsx
@@ -30,9 +30,24 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="7" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
   <si>
     <t>minhoca suja de barro</t>
+  </si>
+  <si>
+    <t>presunto oval</t>
+  </si>
+  <si>
+    <t>bacon fracionado</t>
+  </si>
+  <si>
+    <t>bacon manta</t>
+  </si>
+  <si>
+    <t>cuzcuz de flocao</t>
+  </si>
+  <si>
+    <t xml:space="preserve">teste </t>
   </si>
 </sst>
 </file>
@@ -381,10 +396,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C7"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C6" sqref="C6"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -469,6 +484,61 @@
         <v>50</v>
       </c>
     </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="1">
+        <v>4021</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8" s="1">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="1">
+        <v>5023</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C9" s="1">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="1">
+        <v>5009</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C10" s="1">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="1">
+        <v>4016</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C11" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="1">
+        <v>8005</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="1">
+        <v>120</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="360" verticalDpi="360" r:id="rId1"/>

--- a/src/main/resources/temp/ordercharger.xlsx
+++ b/src/main/resources/temp/ordercharger.xlsx
@@ -4,50 +4,57 @@
   <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519"/>
+  <calcPr calcId="124519" iterateDelta="1E-4"/>
   <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
     <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
-    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
-      <xcalcf:calcFeatures>
-        <xcalcf:feature name="microsoft.com:RD"/>
-        <xcalcf:feature name="microsoft.com:Single"/>
-        <xcalcf:feature name="microsoft.com:FV"/>
-        <xcalcf:feature name="microsoft.com:CNMTM"/>
-        <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
-      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="6">
-  <si>
-    <t>minhoca suja de barro</t>
-  </si>
-  <si>
-    <t>presunto oval</t>
-  </si>
-  <si>
-    <t>bacon fracionado</t>
-  </si>
-  <si>
-    <t>bacon manta</t>
-  </si>
-  <si>
-    <t>cuzcuz de flocao</t>
-  </si>
-  <si>
-    <t xml:space="preserve">teste </t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>COXA C/ SOBRECOXA FRANGO CONGELADO CX. 20KG</t>
+  </si>
+  <si>
+    <t>FILE DE PEITO FRANGO CONGELADO CX. 20KG</t>
+  </si>
+  <si>
+    <t>FILE DE PEITO FRANGO CONGELADO BANDEJA</t>
+  </si>
+  <si>
+    <t>DORSO FRANGO CONGELADO CX. 17KG</t>
+  </si>
+  <si>
+    <t>FRANGO CONGELADO CX. 20KG</t>
+  </si>
+  <si>
+    <t>FILE DE PEITO FRANGO CONG. INTERFOLHADO CX. 20KG</t>
+  </si>
+  <si>
+    <t>SOBRECOXA FRANGO RESFRIADA CX. 20KG</t>
+  </si>
+  <si>
+    <t>PEITO FRANGO CONGELADO INDIVIDUAL CX. 20 KG</t>
+  </si>
+  <si>
+    <t>FILE DE SASSAMI FRANGO CONGELADO INTERFOLHADO CX. 20KG</t>
+  </si>
+  <si>
+    <t>CMS CONGELADO CX 20KG</t>
+  </si>
+  <si>
+    <t>BACON DE PALETA</t>
+  </si>
+  <si>
+    <t>picanha</t>
   </si>
 </sst>
 </file>
@@ -91,9 +98,10 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -404,139 +412,139 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="2" max="2" width="25" customWidth="1"/>
+    <col min="2" max="2" width="57.42578125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="1">
+      <c r="A1" s="2">
         <v>11007</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1">
-        <v>80</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="1">
+      <c r="A2" s="2">
+        <v>11015</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>11016</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>11023</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
         <v>11046</v>
       </c>
-      <c r="B2" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C2" s="1">
-        <v>300</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="1">
-        <v>11096</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C3" s="1">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="1">
-        <v>11015</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C4" s="1">
-        <v>25</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="1">
-        <v>11092</v>
-      </c>
       <c r="B5" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>50</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="1">
-        <v>11023</v>
+      <c r="A6" s="2">
+        <v>11068</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="C6" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>11072</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>11076</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>11084</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>11085</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
         <v>20</v>
       </c>
     </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="1">
-        <v>11076</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C7" s="1">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="1">
-        <v>4021</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C8" s="1">
-        <v>412</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="1">
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
         <v>5023</v>
       </c>
-      <c r="B9" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C9" s="1">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="1">
-        <v>5009</v>
-      </c>
-      <c r="B10" s="1" t="s">
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
         <v>3</v>
       </c>
-      <c r="C10" s="1">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="1">
-        <v>4016</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C11" s="1">
-        <v>32</v>
-      </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="1">
-        <v>8005</v>
+      <c r="A12" s="2">
+        <v>2003</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>5</v>
+        <v>11</v>
       </c>
       <c r="C12" s="1">
-        <v>120</v>
+        <v>800</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/temp/ordercharger.xlsx
+++ b/src/main/resources/temp/ordercharger.xlsx
@@ -19,42 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>COXA C/ SOBRECOXA FRANGO CONGELADO CX. 20KG</t>
-  </si>
-  <si>
-    <t>FILE DE PEITO FRANGO CONGELADO CX. 20KG</t>
-  </si>
-  <si>
-    <t>FILE DE PEITO FRANGO CONGELADO BANDEJA</t>
-  </si>
-  <si>
-    <t>DORSO FRANGO CONGELADO CX. 17KG</t>
-  </si>
-  <si>
-    <t>FRANGO CONGELADO CX. 20KG</t>
-  </si>
-  <si>
-    <t>FILE DE PEITO FRANGO CONG. INTERFOLHADO CX. 20KG</t>
-  </si>
-  <si>
-    <t>SOBRECOXA FRANGO RESFRIADA CX. 20KG</t>
-  </si>
-  <si>
-    <t>PEITO FRANGO CONGELADO INDIVIDUAL CX. 20 KG</t>
-  </si>
-  <si>
-    <t>FILE DE SASSAMI FRANGO CONGELADO INTERFOLHADO CX. 20KG</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>CMS CONGELADO CX 20KG</t>
-  </si>
-  <si>
-    <t>BACON DE PALETA</t>
-  </si>
-  <si>
-    <t>picanha</t>
   </si>
 </sst>
 </file>
@@ -407,7 +374,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -416,136 +383,70 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2">
-        <v>11007</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
-        <v>46</v>
-      </c>
+      <c r="A1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2">
-        <v>11015</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>32</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2">
-        <v>11016</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2">
-        <v>11023</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>12</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2">
-        <v>11046</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>7</v>
-      </c>
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2">
-        <v>11068</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>32</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2">
-        <v>11072</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2">
-        <v>11076</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2">
-        <v>11084</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1">
-        <v>5</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
         <v>11085</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>9</v>
+        <v>0</v>
       </c>
       <c r="C10" s="1">
-        <v>20</v>
+        <v>200</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2">
-        <v>5023</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2">
-        <v>2003</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1">
-        <v>800</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/temp/ordercharger.xlsx
+++ b/src/main/resources/temp/ordercharger.xlsx
@@ -19,9 +19,42 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>COXA C/ SOBRECOXA FRANGO CONGELADO CX. 20KG</t>
+  </si>
+  <si>
+    <t>FILE DE PEITO FRANGO CONGELADO CX. 20KG</t>
+  </si>
+  <si>
+    <t>FILE DE PEITO FRANGO CONGELADO BANDEJA</t>
+  </si>
+  <si>
+    <t>DORSO FRANGO CONGELADO CX. 17KG</t>
+  </si>
+  <si>
+    <t>FRANGO CONGELADO CX. 20KG</t>
+  </si>
+  <si>
+    <t>FILE DE PEITO FRANGO CONG. INTERFOLHADO CX. 20KG</t>
+  </si>
+  <si>
+    <t>SOBRECOXA FRANGO RESFRIADA CX. 20KG</t>
+  </si>
+  <si>
+    <t>PEITO FRANGO CONGELADO INDIVIDUAL CX. 20 KG</t>
+  </si>
+  <si>
+    <t>FILE DE SASSAMI FRANGO CONGELADO INTERFOLHADO CX. 20KG</t>
+  </si>
   <si>
     <t>CMS CONGELADO CX 20KG</t>
+  </si>
+  <si>
+    <t>BACON DE PALETA</t>
+  </si>
+  <si>
+    <t>picanha</t>
   </si>
 </sst>
 </file>
@@ -374,7 +407,7 @@
   <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -383,70 +416,136 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="A1" s="2">
+        <v>11007</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>46</v>
+      </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="A2" s="2">
+        <v>11015</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>32</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="2">
+        <v>11016</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="2">
+        <v>11023</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
+      <c r="A5" s="2">
+        <v>11046</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7</v>
+      </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="2">
+        <v>11068</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="2">
+        <v>11072</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="A8" s="2">
+        <v>11076</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="A9" s="2">
+        <v>11084</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
       <c r="A10" s="2">
         <v>11085</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>0</v>
+        <v>9</v>
       </c>
       <c r="C10" s="1">
-        <v>200</v>
+        <v>20</v>
       </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="A11" s="2">
+        <v>5023</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="2">
+        <v>2003</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>800</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/temp/ordercharger.xlsx
+++ b/src/main/resources/temp/ordercharger.xlsx
@@ -19,42 +19,9 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>COXA C/ SOBRECOXA FRANGO CONGELADO CX. 20KG</t>
-  </si>
-  <si>
-    <t>FILE DE PEITO FRANGO CONGELADO CX. 20KG</t>
-  </si>
-  <si>
-    <t>FILE DE PEITO FRANGO CONGELADO BANDEJA</t>
-  </si>
-  <si>
-    <t>DORSO FRANGO CONGELADO CX. 17KG</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>FRANGO CONGELADO CX. 20KG</t>
-  </si>
-  <si>
-    <t>FILE DE PEITO FRANGO CONG. INTERFOLHADO CX. 20KG</t>
-  </si>
-  <si>
-    <t>SOBRECOXA FRANGO RESFRIADA CX. 20KG</t>
-  </si>
-  <si>
-    <t>PEITO FRANGO CONGELADO INDIVIDUAL CX. 20 KG</t>
-  </si>
-  <si>
-    <t>FILE DE SASSAMI FRANGO CONGELADO INTERFOLHADO CX. 20KG</t>
-  </si>
-  <si>
-    <t>CMS CONGELADO CX 20KG</t>
-  </si>
-  <si>
-    <t>BACON DE PALETA</t>
-  </si>
-  <si>
-    <t>picanha</t>
   </si>
 </sst>
 </file>
@@ -404,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C11" sqref="C11"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -416,136 +383,80 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2">
-        <v>11007</v>
-      </c>
-      <c r="B1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" s="1">
-        <v>46</v>
-      </c>
+      <c r="A1" s="2"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2">
-        <v>11015</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>32</v>
-      </c>
+      <c r="A2" s="2"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2">
-        <v>11016</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
+      <c r="A3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2">
-        <v>11023</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>12</v>
-      </c>
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>11046</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>4</v>
+        <v>0</v>
       </c>
       <c r="C5" s="1">
-        <v>7</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2">
-        <v>11068</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>32</v>
-      </c>
+      <c r="A6" s="2"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2">
-        <v>11072</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2">
-        <v>11076</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2">
-        <v>11084</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1">
-        <v>5</v>
-      </c>
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2">
-        <v>11085</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1">
-        <v>20</v>
-      </c>
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2">
-        <v>5023</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
-        <v>30</v>
-      </c>
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2">
-        <v>2003</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1">
-        <v>800</v>
-      </c>
+      <c r="A12" s="2"/>
+      <c r="B12" s="1"/>
+      <c r="C12" s="1"/>
+    </row>
+    <row r="13" spans="1:3">
+      <c r="A13" s="2"/>
+      <c r="B13" s="1"/>
+      <c r="C13" s="1"/>
+    </row>
+    <row r="14" spans="1:3">
+      <c r="A14" s="2"/>
+      <c r="B14" s="1"/>
+      <c r="C14" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/temp/ordercharger.xlsx
+++ b/src/main/resources/temp/ordercharger.xlsx
@@ -19,9 +19,45 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+  <si>
+    <t>COXA C/ SOBRECOXA FRANGO CONGELADO CX. 20KG</t>
+  </si>
+  <si>
+    <t>FILE DE PEITO FRANGO CONGELADO CX. 20KG</t>
+  </si>
+  <si>
+    <t>FILE DE PEITO FRANGO CONGELADO BANDEJA</t>
+  </si>
+  <si>
+    <t>DORSO FRANGO CONGELADO CX. 17KG</t>
+  </si>
   <si>
     <t>FRANGO CONGELADO CX. 20KG</t>
+  </si>
+  <si>
+    <t>FILE DE PEITO FRANGO CONG. INTERFOLHADO CX. 20KG</t>
+  </si>
+  <si>
+    <t>SOBRECOXA FRANGO RESFRIADA CX. 20KG</t>
+  </si>
+  <si>
+    <t>PEITO FRANGO CONGELADO INDIVIDUAL CX. 20 KG</t>
+  </si>
+  <si>
+    <t>FILE DE SASSAMI FRANGO CONGELADO INTERFOLHADO CX. 20KG</t>
+  </si>
+  <si>
+    <t>CMS CONGELADO CX 20KG</t>
+  </si>
+  <si>
+    <t>BACON DE PALETA</t>
+  </si>
+  <si>
+    <t>picanha</t>
+  </si>
+  <si>
+    <t>test</t>
   </si>
 </sst>
 </file>
@@ -374,7 +410,7 @@
   <dimension ref="A1:C14"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -383,80 +419,158 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3">
-      <c r="A1" s="2"/>
-      <c r="B1" s="1"/>
-      <c r="C1" s="1"/>
+      <c r="A1" s="2">
+        <v>11007</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C1" s="1">
+        <v>46</v>
+      </c>
     </row>
     <row r="2" spans="1:3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
+      <c r="A2" s="2">
+        <v>11015</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>32</v>
+      </c>
     </row>
     <row r="3" spans="1:3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
+      <c r="A3" s="2">
+        <v>11016</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="4" spans="1:3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
+      <c r="A4" s="2">
+        <v>11023</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>12</v>
+      </c>
     </row>
     <row r="5" spans="1:3">
       <c r="A5" s="2">
         <v>11046</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="C5" s="1">
-        <v>0</v>
+        <v>7</v>
       </c>
     </row>
     <row r="6" spans="1:3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
+      <c r="A6" s="2">
+        <v>11068</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>32</v>
+      </c>
     </row>
     <row r="7" spans="1:3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
+      <c r="A7" s="2">
+        <v>11072</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
     </row>
     <row r="8" spans="1:3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
+      <c r="A8" s="2">
+        <v>11076</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
     </row>
     <row r="9" spans="1:3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
+      <c r="A9" s="2">
+        <v>11084</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
     </row>
     <row r="10" spans="1:3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
+      <c r="A10" s="2">
+        <v>11085</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>20</v>
+      </c>
     </row>
     <row r="11" spans="1:3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
+      <c r="A11" s="2">
+        <v>5023</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>30</v>
+      </c>
     </row>
     <row r="12" spans="1:3">
-      <c r="A12" s="2"/>
-      <c r="B12" s="1"/>
-      <c r="C12" s="1"/>
+      <c r="A12" s="2">
+        <v>2003</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
+        <v>800</v>
+      </c>
     </row>
     <row r="13" spans="1:3">
-      <c r="A13" s="2"/>
-      <c r="B13" s="1"/>
-      <c r="C13" s="1"/>
+      <c r="A13" s="2">
+        <v>5015</v>
+      </c>
+      <c r="B13" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C13" s="1">
+        <v>56</v>
+      </c>
     </row>
     <row r="14" spans="1:3">
-      <c r="A14" s="2"/>
-      <c r="B14" s="1"/>
-      <c r="C14" s="1"/>
+      <c r="A14" s="2">
+        <v>11074</v>
+      </c>
+      <c r="B14" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C14" s="1">
+        <v>400</v>
+      </c>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/temp/ordercharger.xlsx
+++ b/src/main/resources/temp/ordercharger.xlsx
@@ -1,17 +1,23 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="4" lowestEdited="4" rupBuild="4505"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="4" rupBuild="28429"/>
   <workbookPr defaultThemeVersion="124226"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\EXP05-CD\Desktop\Sistema\WareMapApplication_v1.2\WareMapApplication\temp\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{321B1096-CD15-4AA7-82BA-A7CA0AA7FB6F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="124519" iterateDelta="1E-4"/>
-  <extLst xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main">
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+  <calcPr calcId="124519"/>
+  <extLst>
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -19,61 +25,125 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="14" uniqueCount="13">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
   <si>
     <t>COXA C/ SOBRECOXA FRANGO CONGELADO CX. 20KG</t>
   </si>
   <si>
-    <t>FILE DE PEITO FRANGO CONGELADO CX. 20KG</t>
-  </si>
-  <si>
-    <t>FILE DE PEITO FRANGO CONGELADO BANDEJA</t>
-  </si>
-  <si>
     <t>DORSO FRANGO CONGELADO CX. 17KG</t>
   </si>
   <si>
     <t>FRANGO CONGELADO CX. 20KG</t>
   </si>
   <si>
+    <t>PE FRANGO CONGELADO CAIXA</t>
+  </si>
+  <si>
+    <t>CORACAO FRANGO CONGELADO CX. 17KG</t>
+  </si>
+  <si>
+    <t>FRANGO CONGELADO CARCACA CX. 20KG C/ 10</t>
+  </si>
+  <si>
+    <t>PELE CONGELADA</t>
+  </si>
+  <si>
+    <t>CMS CONGELADO CX 20KG</t>
+  </si>
+  <si>
+    <t>FRANGO CONGELADO CARCACA CX. 20KG C/ 9</t>
+  </si>
+  <si>
+    <t>FRANGO RESFRIADO CARCACA CX. 20KG C/ 9</t>
+  </si>
+  <si>
+    <t>LOMBO CONG SUI S/ OSSO</t>
+  </si>
+  <si>
+    <t>SOBREPALETA CONG SUI S/ OSSO</t>
+  </si>
+  <si>
+    <t>FILE MIGNON CONG SUI S/ OSSO</t>
+  </si>
+  <si>
+    <t>PAPADA SUI CONG</t>
+  </si>
+  <si>
+    <t xml:space="preserve">PERNIL CONG SUI S/ OSSO </t>
+  </si>
+  <si>
+    <t>RECORTE MAGRO SUI CONG</t>
+  </si>
+  <si>
+    <t>LINGUICA TIPO CALABRESA 2,5KG</t>
+  </si>
+  <si>
+    <t>LINGUICA DE CARNE SUINA CONGELADA 5KG</t>
+  </si>
+  <si>
+    <t>BARRIGA SUINA TEMPERADA CONGELADA KG</t>
+  </si>
+  <si>
+    <t>APRESUNTADO 14 KG</t>
+  </si>
+  <si>
+    <t>LINGUICA DE CARNE SUINA CONGELADA 1 KG</t>
+  </si>
+  <si>
+    <t>LOMBO FRACIONADO SUI CONG</t>
+  </si>
+  <si>
+    <t>MIUDO SUI CONG - PE DIANTEIRO</t>
+  </si>
+  <si>
+    <t>BACON MANTA V</t>
+  </si>
+  <si>
+    <t>BACON PERNIL V</t>
+  </si>
+  <si>
+    <t>COPA LOMBO FRACIONADO CONG</t>
+  </si>
+  <si>
+    <t>MIUDO SUI CONG-MASC C/ ORELHA</t>
+  </si>
+  <si>
+    <t>PALETA DEFUMADA DE SUINO</t>
+  </si>
+  <si>
+    <t>CARNE CONGELADA DE SUINO COM OSSO COSTELA (GRAN)</t>
+  </si>
+  <si>
+    <t>CARNE CONGELADA DE SUINO COM OSSO - COSTELA (FRACIONADA)</t>
+  </si>
+  <si>
+    <t>BACON EM CUBOS 1 KG</t>
+  </si>
+  <si>
+    <t>MEIO DA ASA FRANGO TEMPERADA CONG 12KG</t>
+  </si>
+  <si>
     <t>FILE DE PEITO FRANGO CONG. INTERFOLHADO CX. 20KG</t>
   </si>
   <si>
-    <t>SOBRECOXA FRANGO RESFRIADA CX. 20KG</t>
-  </si>
-  <si>
-    <t>PEITO FRANGO CONGELADO INDIVIDUAL CX. 20 KG</t>
-  </si>
-  <si>
-    <t>FILE DE SASSAMI FRANGO CONGELADO INTERFOLHADO CX. 20KG</t>
-  </si>
-  <si>
-    <t>CMS CONGELADO CX 20KG</t>
-  </si>
-  <si>
-    <t>BACON DE PALETA</t>
-  </si>
-  <si>
-    <t>picanha</t>
-  </si>
-  <si>
-    <t>test</t>
+    <t>COXA C/ SOBRECOXA FRANGO CONG INDIVIDUAL CX 20KG</t>
+  </si>
+  <si>
+    <t>FILE DE PEITO FRANGO CONG. INDIVIDUAL CX. 20KG</t>
+  </si>
+  <si>
+    <t>COXINHA DA ASA FRANGO CONGELADA INDIVIDUAL CX 20KG</t>
+  </si>
+  <si>
+    <t>FILE DE SASSAMI FRANGO CONGELADO CX 20KG</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="1" x14ac:knownFonts="1">
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
       <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
@@ -101,10 +171,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="3" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -123,9 +192,9 @@
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
-<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Tema do Office">
+<a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme 2007 - 2010">
   <a:themeElements>
-    <a:clrScheme name="Escritório">
+    <a:clrScheme name="Office 2007 - 2010">
       <a:dk1>
         <a:sysClr val="windowText" lastClr="000000"/>
       </a:dk1>
@@ -163,7 +232,7 @@
         <a:srgbClr val="800080"/>
       </a:folHlink>
     </a:clrScheme>
-    <a:fontScheme name="Escritório">
+    <a:fontScheme name="Office 2007 - 2010">
       <a:majorFont>
         <a:latin typeface="Cambria"/>
         <a:ea typeface=""/>
@@ -197,6 +266,7 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Times New Roman"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
         <a:latin typeface="Calibri"/>
@@ -231,9 +301,10 @@
         <a:font script="Mong" typeface="Mongolian Baiti"/>
         <a:font script="Viet" typeface="Arial"/>
         <a:font script="Uigh" typeface="Microsoft Uighur"/>
+        <a:font script="Geor" typeface="Sylfaen"/>
       </a:minorFont>
     </a:fontScheme>
-    <a:fmtScheme name="Escritório">
+    <a:fmtScheme name="Office 2007 - 2010">
       <a:fillStyleLst>
         <a:solidFill>
           <a:schemeClr val="phClr"/>
@@ -406,170 +477,420 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C14"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:C37"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C15" sqref="C15"/>
+      <selection sqref="A1:XFD1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <cols>
-    <col min="2" max="2" width="57.42578125" customWidth="1"/>
-  </cols>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3">
-      <c r="A1" s="2">
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1">
         <v>11007</v>
       </c>
-      <c r="B1" s="1" t="s">
+      <c r="B1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" s="1">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2">
-        <v>11015</v>
-      </c>
-      <c r="B2" s="1" t="s">
+      <c r="C1">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
+        <v>11023</v>
+      </c>
+      <c r="B2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1">
+      <c r="C2">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
+        <v>11024</v>
+      </c>
+      <c r="B3" t="s">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4" s="1">
+        <v>11040</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="1">
+        <v>11042</v>
+      </c>
+      <c r="B5" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="1">
+        <v>11046</v>
+      </c>
+      <c r="B6" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="1">
+        <v>11068</v>
+      </c>
+      <c r="B7" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2">
-        <v>11016</v>
-      </c>
-      <c r="B3" s="1" t="s">
+      <c r="C7">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="1">
+        <v>11074</v>
+      </c>
+      <c r="B8" t="s">
+        <v>33</v>
+      </c>
+      <c r="C8">
         <v>2</v>
       </c>
-      <c r="C3" s="1">
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="1">
+        <v>11075</v>
+      </c>
+      <c r="B9" t="s">
+        <v>34</v>
+      </c>
+      <c r="C9">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10" s="1">
+        <v>11085</v>
+      </c>
+      <c r="B10" t="s">
+        <v>7</v>
+      </c>
+      <c r="C10">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11" s="1">
+        <v>11097</v>
+      </c>
+      <c r="B11" t="s">
+        <v>35</v>
+      </c>
+      <c r="C11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12" s="1">
+        <v>11112</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12">
         <v>1</v>
       </c>
     </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2">
-        <v>11023</v>
-      </c>
-      <c r="B4" s="1" t="s">
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13" s="1">
+        <v>11309</v>
+      </c>
+      <c r="B13" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14" s="1">
+        <v>11310</v>
+      </c>
+      <c r="B14" t="s">
+        <v>5</v>
+      </c>
+      <c r="C14">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A15" s="1">
+        <v>11409</v>
+      </c>
+      <c r="B15" t="s">
+        <v>9</v>
+      </c>
+      <c r="C15">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A16" s="1">
+        <v>1001</v>
+      </c>
+      <c r="B16" t="s">
+        <v>10</v>
+      </c>
+      <c r="C16">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A17" s="1">
+        <v>1004</v>
+      </c>
+      <c r="B17" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18" s="1">
+        <v>1005</v>
+      </c>
+      <c r="B18" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19" s="1">
+        <v>1007</v>
+      </c>
+      <c r="B19" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20" s="1">
+        <v>1009</v>
+      </c>
+      <c r="B20" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21" s="1">
+        <v>1013</v>
+      </c>
+      <c r="B21" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22" s="1">
+        <v>3902</v>
+      </c>
+      <c r="B22" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="1">
+        <v>3004</v>
+      </c>
+      <c r="B23" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24" s="1">
+        <v>2002</v>
+      </c>
+      <c r="B24" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="1">
+        <v>4016</v>
+      </c>
+      <c r="B25" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="1">
+        <v>3006</v>
+      </c>
+      <c r="B26" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="1">
+        <v>1026</v>
+      </c>
+      <c r="B27" t="s">
+        <v>21</v>
+      </c>
+      <c r="C27">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="1">
+        <v>6005</v>
+      </c>
+      <c r="B28" t="s">
+        <v>22</v>
+      </c>
+      <c r="C28">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="1">
+        <v>5009</v>
+      </c>
+      <c r="B29" t="s">
+        <v>23</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="1">
+        <v>5007</v>
+      </c>
+      <c r="B30" t="s">
+        <v>24</v>
+      </c>
+      <c r="C30">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="1">
+        <v>1030</v>
+      </c>
+      <c r="B31" t="s">
+        <v>25</v>
+      </c>
+      <c r="C31">
         <v>3</v>
       </c>
-      <c r="C4" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2">
-        <v>11046</v>
-      </c>
-      <c r="B5" s="1" t="s">
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="1">
+        <v>6007</v>
+      </c>
+      <c r="B32" t="s">
+        <v>26</v>
+      </c>
+      <c r="C32">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="1">
+        <v>5015</v>
+      </c>
+      <c r="B33" t="s">
+        <v>27</v>
+      </c>
+      <c r="C33">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="1">
+        <v>1040</v>
+      </c>
+      <c r="B34" t="s">
+        <v>28</v>
+      </c>
+      <c r="C34">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="1">
+        <v>1044</v>
+      </c>
+      <c r="B35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C35">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36" s="1">
+        <v>5021</v>
+      </c>
+      <c r="B36" t="s">
+        <v>30</v>
+      </c>
+      <c r="C36">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A37" s="1">
+        <v>2703</v>
+      </c>
+      <c r="B37" t="s">
+        <v>31</v>
+      </c>
+      <c r="C37">
         <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2">
-        <v>11068</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2">
-        <v>11072</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2">
-        <v>11076</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2">
-        <v>11084</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2">
-        <v>11085</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2">
-        <v>5023</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2">
-        <v>2003</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1">
-        <v>800</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3">
-      <c r="A13" s="2">
-        <v>5015</v>
-      </c>
-      <c r="B13" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C13" s="1">
-        <v>56</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3">
-      <c r="A14" s="2">
-        <v>11074</v>
-      </c>
-      <c r="B14" s="1" t="s">
-        <v>12</v>
-      </c>
-      <c r="C14" s="1">
-        <v>400</v>
       </c>
     </row>
   </sheetData>

--- a/src/main/resources/temp/ordercharger.xlsx
+++ b/src/main/resources/temp/ordercharger.xlsx
@@ -19,40 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
-  <si>
-    <t>COXA C/ SOBRECOXA FRANGO CONGELADO CX. 20KG</t>
-  </si>
-  <si>
-    <t>FILE DE PEITO FRANGO CONGELADO CX. 20KG</t>
-  </si>
-  <si>
-    <t>FILE DE PEITO FRANGO CONGELADO BANDEJA</t>
-  </si>
-  <si>
-    <t>DORSO FRANGO CONGELADO CX. 17KG</t>
-  </si>
-  <si>
-    <t>FRANGO CONGELADO CX. 20KG</t>
-  </si>
-  <si>
-    <t>FILE DE PEITO FRANGO CONG. INTERFOLHADO CX. 20KG</t>
-  </si>
-  <si>
-    <t>SOBRECOXA FRANGO RESFRIADA CX. 20KG</t>
-  </si>
-  <si>
-    <t>PEITO FRANGO CONGELADO INDIVIDUAL CX. 20 KG</t>
-  </si>
-  <si>
-    <t>FILE DE SASSAMI FRANGO CONGELADO INTERFOLHADO CX. 20KG</t>
-  </si>
-  <si>
-    <t>CMS CONGELADO CX 20KG</t>
-  </si>
-  <si>
-    <t>BACON DE PALETA</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
   <si>
     <t>picanha</t>
   </si>
@@ -404,10 +371,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C12"/>
+  <dimension ref="A1:C11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -417,135 +384,64 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2">
-        <v>11007</v>
+        <v>11046</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2">
-        <v>11015</v>
-      </c>
-      <c r="B2" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C2" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2">
-        <v>11016</v>
-      </c>
-      <c r="B3" s="1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C3" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2">
-        <v>11023</v>
-      </c>
-      <c r="B4" s="1" t="s">
-        <v>3</v>
-      </c>
-      <c r="C4" s="1">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2">
-        <v>11046</v>
-      </c>
-      <c r="B5" s="1" t="s">
-        <v>4</v>
-      </c>
-      <c r="C5" s="1">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2">
-        <v>11068</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>5</v>
-      </c>
-      <c r="C6" s="1">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2">
-        <v>11072</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>6</v>
-      </c>
-      <c r="C7" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2">
-        <v>11076</v>
-      </c>
-      <c r="B8" s="1" t="s">
-        <v>7</v>
-      </c>
-      <c r="C8" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2">
-        <v>11084</v>
-      </c>
-      <c r="B9" s="1" t="s">
-        <v>8</v>
-      </c>
-      <c r="C9" s="1">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2">
-        <v>11085</v>
-      </c>
-      <c r="B10" s="1" t="s">
-        <v>9</v>
-      </c>
-      <c r="C10" s="1">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2">
-        <v>5023</v>
-      </c>
-      <c r="B11" s="1" t="s">
-        <v>10</v>
-      </c>
-      <c r="C11" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3">
-      <c r="A12" s="2">
-        <v>2003</v>
-      </c>
-      <c r="B12" s="1" t="s">
-        <v>11</v>
-      </c>
-      <c r="C12" s="1">
         <v>800</v>
       </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2"/>
+      <c r="B2" s="1"/>
+      <c r="C2" s="1"/>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2"/>
+      <c r="B3" s="1"/>
+      <c r="C3" s="1"/>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="1"/>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="1"/>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="1"/>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="1"/>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2"/>
+      <c r="B8" s="1"/>
+      <c r="C8" s="1"/>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2"/>
+      <c r="B9" s="1"/>
+      <c r="C9" s="1"/>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2"/>
+      <c r="B11" s="1"/>
+      <c r="C11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/resources/temp/ordercharger.xlsx
+++ b/src/main/resources/temp/ordercharger.xlsx
@@ -19,7 +19,40 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1" uniqueCount="1">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="12" uniqueCount="12">
+  <si>
+    <t>COXA C/ SOBRECOXA FRANGO CONGELADO CX. 20KG</t>
+  </si>
+  <si>
+    <t>FILE DE PEITO FRANGO CONGELADO CX. 20KG</t>
+  </si>
+  <si>
+    <t>FILE DE PEITO FRANGO CONGELADO BANDEJA</t>
+  </si>
+  <si>
+    <t>DORSO FRANGO CONGELADO CX. 17KG</t>
+  </si>
+  <si>
+    <t>FRANGO CONGELADO CX. 20KG</t>
+  </si>
+  <si>
+    <t>FILE DE PEITO FRANGO CONG. INTERFOLHADO CX. 20KG</t>
+  </si>
+  <si>
+    <t>SOBRECOXA FRANGO RESFRIADA CX. 20KG</t>
+  </si>
+  <si>
+    <t>PEITO FRANGO CONGELADO INDIVIDUAL CX. 20 KG</t>
+  </si>
+  <si>
+    <t>FILE DE SASSAMI FRANGO CONGELADO INTERFOLHADO CX. 20KG</t>
+  </si>
+  <si>
+    <t>CMS CONGELADO CX 20KG</t>
+  </si>
+  <si>
+    <t>BACON DE PALETA</t>
+  </si>
   <si>
     <t>picanha</t>
   </si>
@@ -371,10 +404,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C11"/>
+  <dimension ref="A1:C12"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -384,64 +417,135 @@
   <sheetData>
     <row r="1" spans="1:3">
       <c r="A1" s="2">
-        <v>11046</v>
+        <v>11007</v>
       </c>
       <c r="B1" s="1" t="s">
         <v>0</v>
       </c>
       <c r="C1" s="1">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2" s="2">
+        <v>11015</v>
+      </c>
+      <c r="B2" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C2" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3" s="2">
+        <v>11016</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="C3" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3">
+      <c r="A4" s="2">
+        <v>11023</v>
+      </c>
+      <c r="B4" s="1" t="s">
+        <v>3</v>
+      </c>
+      <c r="C4" s="1">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3">
+      <c r="A5" s="2">
+        <v>11046</v>
+      </c>
+      <c r="B5" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C5" s="1">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3">
+      <c r="A6" s="2">
+        <v>11068</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="C6" s="1">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3">
+      <c r="A7" s="2">
+        <v>11072</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>6</v>
+      </c>
+      <c r="C7" s="1">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3">
+      <c r="A8" s="2">
+        <v>11076</v>
+      </c>
+      <c r="B8" s="1" t="s">
+        <v>7</v>
+      </c>
+      <c r="C8" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3">
+      <c r="A9" s="2">
+        <v>11084</v>
+      </c>
+      <c r="B9" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="C9" s="1">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3">
+      <c r="A10" s="2">
+        <v>11085</v>
+      </c>
+      <c r="B10" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="C10" s="1">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3">
+      <c r="A11" s="2">
+        <v>5023</v>
+      </c>
+      <c r="B11" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C11" s="1">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3">
+      <c r="A12" s="2">
+        <v>2003</v>
+      </c>
+      <c r="B12" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C12" s="1">
         <v>800</v>
       </c>
-    </row>
-    <row r="2" spans="1:3">
-      <c r="A2" s="2"/>
-      <c r="B2" s="1"/>
-      <c r="C2" s="1"/>
-    </row>
-    <row r="3" spans="1:3">
-      <c r="A3" s="2"/>
-      <c r="B3" s="1"/>
-      <c r="C3" s="1"/>
-    </row>
-    <row r="4" spans="1:3">
-      <c r="A4" s="2"/>
-      <c r="B4" s="1"/>
-      <c r="C4" s="1"/>
-    </row>
-    <row r="5" spans="1:3">
-      <c r="A5" s="2"/>
-      <c r="B5" s="1"/>
-      <c r="C5" s="1"/>
-    </row>
-    <row r="6" spans="1:3">
-      <c r="A6" s="2"/>
-      <c r="B6" s="1"/>
-      <c r="C6" s="1"/>
-    </row>
-    <row r="7" spans="1:3">
-      <c r="A7" s="2"/>
-      <c r="B7" s="1"/>
-      <c r="C7" s="1"/>
-    </row>
-    <row r="8" spans="1:3">
-      <c r="A8" s="2"/>
-      <c r="B8" s="1"/>
-      <c r="C8" s="1"/>
-    </row>
-    <row r="9" spans="1:3">
-      <c r="A9" s="2"/>
-      <c r="B9" s="1"/>
-      <c r="C9" s="1"/>
-    </row>
-    <row r="10" spans="1:3">
-      <c r="A10" s="2"/>
-      <c r="B10" s="1"/>
-      <c r="C10" s="1"/>
-    </row>
-    <row r="11" spans="1:3">
-      <c r="A11" s="2"/>
-      <c r="B11" s="1"/>
-      <c r="C11" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
